--- a/results/I3_N5_M2_T30_C100_DepCentral_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C100_DepCentral_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1176.256084438497</v>
+        <v>1078.966084436787</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4100000858306885</v>
+        <v>0.4499998092651367</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1095.53000000171</v>
+        <v>972</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>61.76000000000001</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24.93048325774537</v>
+        <v>23.10555953090578</v>
       </c>
     </row>
     <row r="4">
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>26.38795072015898</v>
+        <v>26.23570364914817</v>
       </c>
     </row>
     <row r="6">
@@ -1038,7 +1038,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>152.399000000065</v>
+        <v>122.4</v>
       </c>
     </row>
     <row r="4">
@@ -1049,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>88.01900000001115</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="5">
@@ -1060,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>157.1540000000824</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>115.9220000000424</v>
+        <v>114.2</v>
       </c>
     </row>
     <row r="7">
@@ -1082,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.94400000000861</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="8">
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>157.1540000000954</v>
+        <v>174.8</v>
       </c>
     </row>
     <row r="9">
@@ -1104,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>152.3990000000763</v>
+        <v>122.4</v>
       </c>
     </row>
   </sheetData>
@@ -1151,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>57.15400000009504</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="3">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>52.39900000007594</v>
+        <v>22.4</v>
       </c>
     </row>
   </sheetData>
@@ -1253,7 +1253,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6.176</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
   </sheetData>
